--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_114.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_114.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Db', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Bb', 'Bb']]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(111.87, 114.76)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.624535, 15.172562)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:7/F', 'C:maj/E'], ['D:7', 'G:maj', 'D:7/C']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1934523809523809</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab:7', 'Db'], ['Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.84, 12.46), (53.5, 61.32), (66.98, 74.48)]</t>
+          <t>[['G:7', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.1, 5.91), (94.88, 97.74), (21.5, 24.4)]</t>
+          <t>[('0:00:05.420000', '0:00:12.580000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:00.006734', '0:01:08.830317')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2701149425287356</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09980620155038759</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.96, 21.56)]</t>
+          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(22.3, 48.74)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:22.080000', '0:00:29.360000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:14.480000', '0:00:43.320000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1087570621468927</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08749999999999999</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(17.014988, 20.892721)]</t>
+          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(19.616133, 25.815861)]</t>
+          <t>[('0:00:37.740000', '0:00:40.640000'), ('0:04:14.260000', '0:04:17.980000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>[('0:00:31.240000', '0:00:36.600000'), ('0:00:00.240000', '0:00:08.180000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>jaah_80</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_39</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02736612702366127</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>[['C:7', 'F', 'F'], ['G:7', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(42.52, 46.36)]</t>
+          <t>[['Eb:7', 'Ab', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.62, 19.56)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:21.410000', '0:00:24.830000'), ('0:00:09.910000', '0:00:14')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:34.650000', '0:00:37.760000'), ('0:00:48.180000', '0:00:50.270000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(97.72, 114.06)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(11.94, 17.6)]</t>
+          <t>[('0:01:58.440000', '0:02:02')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3882352941176471</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(142.14, 146.8)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:07.580000', '0:00:20.100000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(10.26, 15.94)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.42, 19.5)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_100</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2848837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(63.12, 69.42)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(32.38, 46.68)]</t>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1019736842105263</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4318181818181818</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.421247, 3.083177)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
+          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:06.726778', '0:00:14.737663')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(40.049, 48.539)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(24.54, 29.42)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5428571428571429</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(128.54, 133.9)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.525011, 14.746417)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1270833333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'G/3', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'C/3', 'F']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(23.936132, 26.885065)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(21.155, 23.33)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'C', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'A/7', 'A/b7', 'A/6']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(23.67, 26.74)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(84.787426, 87.427993)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09716981132075472</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Bb:7', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Bb:7', 'Eb', 'Eb', 'Eb']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(23.19, 29.9)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(33.48, 46.94)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(74.4, 86.06)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(19.86, 23.68)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
